--- a/Excel/Formula Excel Template.xlsx
+++ b/Excel/Formula Excel Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="89">
   <si>
     <t>FirstName</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <t>=RIGHT(J2,4)</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -990,7 +993,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1320,12 +1323,13 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
@@ -2661,8 +2665,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4"/>
@@ -2735,7 +2739,9 @@
         <f>TEXT(H2,"dd/mm/yyyy")</f>
         <v>02/11/2001</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="L2" t="str">
         <f>TEXT(J2,"dd/mm/yyyy")</f>
         <v>02/11/2001</v>
@@ -3417,7 +3423,7 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
